--- a/InterlockingDemo/Datas/1.InterlockingTable(联锁表文件).xlsx
+++ b/InterlockingDemo/Datas/1.InterlockingTable(联锁表文件).xlsx
@@ -657,221 +657,513 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>D4、X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4、X4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3D、D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1D、D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5DG、1DG、ⅡAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7DG、3DG、1DG、ⅡAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA、SLZA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7)、(1/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14DG、8DG、6DG</t>
+  </si>
+  <si>
+    <t>ⅠAG、3DG、7DG、ⅠG、12DG、4DG、ⅠBG</t>
+  </si>
+  <si>
+    <t>ⅡBG、2DG、4DG、12DG、14DG、3G</t>
+  </si>
+  <si>
+    <t>(12/14)、4</t>
+  </si>
+  <si>
+    <t>14DG、12DG、4DG、ⅠBG</t>
+  </si>
+  <si>
+    <t>12/14、4</t>
+  </si>
+  <si>
+    <t>12DG、4DG、ⅠBG</t>
+  </si>
+  <si>
+    <t>D4、D10</t>
+  </si>
+  <si>
+    <t>D4、D10、SⅡ、D1</t>
+  </si>
+  <si>
+    <t>2/4、10</t>
+  </si>
+  <si>
+    <t>ⅡBG、2DG、10DG、ⅡG</t>
+  </si>
+  <si>
+    <t>2/4、(10)</t>
+  </si>
+  <si>
+    <t>ⅡBG、2DG、10DG、4G</t>
+  </si>
+  <si>
+    <t>ⅡBG、2DG、10DG、ⅡG、5DG、1DG、ⅡAG</t>
+  </si>
+  <si>
+    <t>12/14、(8)、6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/14、(8)、(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、1/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⅡAG</t>
+  </si>
+  <si>
+    <t>1DG、3DG、7DG、ⅠG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⅠG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⅡG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至3股道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8A、X3DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、(8)、12/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3DA、D6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3L、D6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X、D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X、D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6DG、8DG、14DG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6A、X3DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6)、(8)、12/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⅠG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⅡG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至3股道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3、7、12/14、2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2/4)、(12/14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ⅱ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UU </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UU </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4、10、5、1/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向编组线1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向编组线2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SⅡD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进路号码</t>
+  </si>
+  <si>
+    <r>
+      <t>XLA、S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3LA、SLZA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3LA、XLZA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XⅠLA、XLZA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D1A、S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ⅱ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DA</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D1A、S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DA</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ⅱ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA、SLZA</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D3A、S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ⅰ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DA</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLA、SⅠLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SLA、X4LA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D4、X3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D4、X4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X3D、D2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X1D、D3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5DG、1DG、ⅡAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7DG、3DG、1DG、ⅡAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STA、SLZA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(7)、(1/3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14DG、8DG、6DG</t>
-  </si>
-  <si>
-    <t>ⅠAG、3DG、7DG、ⅠG、12DG、4DG、ⅠBG</t>
-  </si>
-  <si>
-    <t>ⅡBG、2DG、4DG、12DG、14DG、3G</t>
-  </si>
-  <si>
-    <t>(12/14)、4</t>
-  </si>
-  <si>
-    <t>14DG、12DG、4DG、ⅠBG</t>
-  </si>
-  <si>
-    <t>12/14、4</t>
-  </si>
-  <si>
-    <t>12DG、4DG、ⅠBG</t>
-  </si>
-  <si>
-    <t>D4、D10</t>
-  </si>
-  <si>
-    <t>D4、D10、SⅡ、D1</t>
-  </si>
-  <si>
-    <t>2/4、10</t>
-  </si>
-  <si>
-    <t>ⅡBG、2DG、10DG、ⅡG</t>
-  </si>
-  <si>
-    <t>2/4、(10)</t>
-  </si>
-  <si>
-    <t>ⅡBG、2DG、10DG、4G</t>
-  </si>
-  <si>
-    <t>ⅡBG、2DG、10DG、ⅡG、5DG、1DG、ⅡAG</t>
-  </si>
-  <si>
-    <t>12/14、(8)、6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/14、(8)、(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、1/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ⅡAG</t>
-  </si>
-  <si>
-    <t>1DG、3DG、7DG、ⅠG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ⅠG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ⅡG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至3股道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D8A、X3DA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D8A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、(8)、12/14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X3DA、D6A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X3L、D6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X、D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X、D3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6DG、8DG、14DG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D6A、X3DA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D6A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(6)、(8)、12/14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ⅠG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ⅡG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至3股道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/3、7、12/14、2/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2/4)、(12/14)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>S</t>
     </r>
     <r>
       <rPr>
-        <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -881,108 +1173,6 @@
       </rPr>
       <t>Ⅱ</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UU </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UU </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/4、10、5、1/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向编组线1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向编组线2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SⅡD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进路号码</t>
-  </si>
-  <si>
-    <r>
-      <t>XLA、S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -992,202 +1182,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>LA</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3LA、SLZA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XLA、D5LA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLA、D10LA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X3LA、XLZA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D3A、S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ⅰ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DA</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XⅠLA、XLZA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D1A、S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ⅱ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DA</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ⅱ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>LA、SLZA</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>D1A、S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DA</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ⅱ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LA、SLZA</t>
-    </r>
+    <t>SLA、XⅡLA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1373,13 +1373,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1705,7 +1705,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1727,7 +1727,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -1737,10 +1737,10 @@
       <c r="E1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
@@ -1750,15 +1750,15 @@
       <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="19"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1786,26 +1786,26 @@
       <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>43</v>
@@ -1823,21 +1823,21 @@
         <v>39</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -1861,23 +1861,23 @@
         <v>14</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N4" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>46</v>
@@ -1886,77 +1886,77 @@
         <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N5" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>34</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N6" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -1968,24 +1968,24 @@
         <v>31</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N7" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
@@ -2002,32 +2002,32 @@
         <v>27</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N8" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2040,33 +2040,33 @@
         <v>62</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N9" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>62</v>
@@ -2075,122 +2075,122 @@
         <v>28</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="M10" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N10" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="M11" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N11" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="M12" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N12" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="M13" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N13" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>62</v>
@@ -2207,29 +2207,29 @@
         <v>27</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N14" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2257,24 +2257,24 @@
         <v>39</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N15" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>52</v>
@@ -2292,22 +2292,22 @@
         <v>56</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N16" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2335,19 +2335,19 @@
         <v>39</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N17" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>55</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>14</v>
@@ -2376,21 +2376,21 @@
         <v>14</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N18" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>57</v>
@@ -2402,33 +2402,33 @@
         <v>58</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>60</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N19" s="4">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>57</v>
@@ -2440,7 +2440,7 @@
         <v>59</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>61</v>
@@ -2449,19 +2449,19 @@
         <v>35</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N20" s="4">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2477,7 +2477,7 @@
         <v>22</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>66</v>
@@ -2489,16 +2489,16 @@
         <v>39</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N21" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="2" t="s">
         <v>94</v>
       </c>
@@ -2521,19 +2521,19 @@
         <v>70</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N22" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2552,7 +2552,7 @@
         <v>75</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>67</v>
@@ -2561,16 +2561,16 @@
         <v>14</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N23" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="2" t="s">
         <v>94</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>74</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>70</v>
@@ -2596,17 +2596,17 @@
         <v>14</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N24" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>93</v>
@@ -2630,18 +2630,18 @@
         <v>89</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N25" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="2" t="s">
         <v>81</v>
       </c>
@@ -2667,23 +2667,23 @@
         <v>89</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N26" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18" t="s">
         <v>76</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>77</v>
@@ -2695,30 +2695,30 @@
         <v>22</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>79</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N27" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>78</v>
@@ -2727,84 +2727,84 @@
         <v>22</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N28" s="4">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N29" s="4">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="J30" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N30" s="4">
         <v>28</v>
@@ -2812,13 +2812,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="B9:B14"/>
@@ -2830,6 +2823,13 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
